--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H2">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.730667150953891</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N2">
-        <v>0.730667150953891</v>
+        <v>2.202569</v>
       </c>
       <c r="O2">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="P2">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="Q2">
-        <v>27.80650474591656</v>
+        <v>28.611010088684</v>
       </c>
       <c r="R2">
-        <v>27.80650474591656</v>
+        <v>257.499090798156</v>
       </c>
       <c r="S2">
-        <v>0.3786430630917489</v>
+        <v>0.33836847550225</v>
       </c>
       <c r="T2">
-        <v>0.3786430630917489</v>
+        <v>0.33836847550225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H3">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.601209769439449</v>
+        <v>0.7602199999999999</v>
       </c>
       <c r="N3">
-        <v>0.601209769439449</v>
+        <v>2.28066</v>
       </c>
       <c r="O3">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="P3">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="Q3">
-        <v>22.87983288339236</v>
+        <v>29.62539937175999</v>
       </c>
       <c r="R3">
-        <v>22.87983288339236</v>
+        <v>266.62859434584</v>
       </c>
       <c r="S3">
-        <v>0.3115562378355814</v>
+        <v>0.350365163288397</v>
       </c>
       <c r="T3">
-        <v>0.3115562378355814</v>
+        <v>0.350365163288397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H4">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I4">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J4">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.730667150953891</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N4">
-        <v>0.730667150953891</v>
+        <v>2.202569</v>
       </c>
       <c r="O4">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="P4">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="Q4">
-        <v>7.071001816449881</v>
+        <v>7.111163124853222</v>
       </c>
       <c r="R4">
-        <v>7.071001816449881</v>
+        <v>64.00046812367901</v>
       </c>
       <c r="S4">
-        <v>0.09628631183144591</v>
+        <v>0.08410026133806719</v>
       </c>
       <c r="T4">
-        <v>0.09628631183144591</v>
+        <v>0.08410026133806718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H5">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I5">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J5">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.601209769439449</v>
+        <v>0.7602199999999999</v>
       </c>
       <c r="N5">
-        <v>0.601209769439449</v>
+        <v>2.28066</v>
       </c>
       <c r="O5">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="P5">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="Q5">
-        <v>5.818183240103028</v>
+        <v>7.363285914006666</v>
       </c>
       <c r="R5">
-        <v>5.818183240103028</v>
+        <v>66.26957322606</v>
       </c>
       <c r="S5">
-        <v>0.07922659621523283</v>
+        <v>0.08708199471765755</v>
       </c>
       <c r="T5">
-        <v>0.07922659621523283</v>
+        <v>0.08708199471765755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.559564399262086</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H6">
-        <v>0.559564399262086</v>
+        <v>1.82029</v>
       </c>
       <c r="I6">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J6">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.730667150953891</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N6">
-        <v>0.730667150953891</v>
+        <v>2.202569</v>
       </c>
       <c r="O6">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="P6">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="Q6">
-        <v>0.4088553253840539</v>
+        <v>0.4454793694455556</v>
       </c>
       <c r="R6">
-        <v>0.4088553253840539</v>
+        <v>4.00931432501</v>
       </c>
       <c r="S6">
-        <v>0.005567410725633398</v>
+        <v>0.005268467441022441</v>
       </c>
       <c r="T6">
-        <v>0.005567410725633398</v>
+        <v>0.005268467441022441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.559564399262086</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H7">
-        <v>0.559564399262086</v>
+        <v>1.82029</v>
       </c>
       <c r="I7">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J7">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.601209769439449</v>
+        <v>0.7602199999999999</v>
       </c>
       <c r="N7">
-        <v>0.601209769439449</v>
+        <v>2.28066</v>
       </c>
       <c r="O7">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="P7">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="Q7">
-        <v>0.3364155834668826</v>
+        <v>0.4612736212666666</v>
       </c>
       <c r="R7">
-        <v>0.3364155834668826</v>
+        <v>4.1514625914</v>
       </c>
       <c r="S7">
-        <v>0.004580993841536467</v>
+        <v>0.005455258361505242</v>
       </c>
       <c r="T7">
-        <v>0.004580993841536467</v>
+        <v>0.005455258361505242</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.395774929194067</v>
+        <v>0.4787493333333333</v>
       </c>
       <c r="H8">
-        <v>0.395774929194067</v>
+        <v>1.436248</v>
       </c>
       <c r="I8">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="J8">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040449</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.730667150953891</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N8">
-        <v>0.730667150953891</v>
+        <v>2.202569</v>
       </c>
       <c r="O8">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="P8">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="Q8">
-        <v>0.2891797399332069</v>
+        <v>0.3514928134568889</v>
       </c>
       <c r="R8">
-        <v>0.2891797399332069</v>
+        <v>3.163435321112</v>
       </c>
       <c r="S8">
-        <v>0.003937780152986126</v>
+        <v>0.004156934238628789</v>
       </c>
       <c r="T8">
-        <v>0.003937780152986126</v>
+        <v>0.00415693423862879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.395774929194067</v>
+        <v>0.4787493333333333</v>
       </c>
       <c r="H9">
-        <v>0.395774929194067</v>
+        <v>1.436248</v>
       </c>
       <c r="I9">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="J9">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040449</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.601209769439449</v>
+        <v>0.7602199999999999</v>
       </c>
       <c r="N9">
-        <v>0.601209769439449</v>
+        <v>2.28066</v>
       </c>
       <c r="O9">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="P9">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="Q9">
-        <v>0.2379437539306793</v>
+        <v>0.3639548181866666</v>
       </c>
       <c r="R9">
-        <v>0.2379437539306793</v>
+        <v>3.27559336368</v>
       </c>
       <c r="S9">
-        <v>0.003240096252841432</v>
+        <v>0.004304316296411659</v>
       </c>
       <c r="T9">
-        <v>0.003240096252841432</v>
+        <v>0.00430431629641166</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.44904296792746</v>
+        <v>6.840640999999999</v>
       </c>
       <c r="H10">
-        <v>6.44904296792746</v>
+        <v>20.521923</v>
       </c>
       <c r="I10">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="J10">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.730667150953891</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N10">
-        <v>0.730667150953891</v>
+        <v>2.202569</v>
       </c>
       <c r="O10">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="P10">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="Q10">
-        <v>4.712103851754783</v>
+        <v>5.022327935576333</v>
       </c>
       <c r="R10">
-        <v>4.712103851754783</v>
+        <v>45.200951420187</v>
       </c>
       <c r="S10">
-        <v>0.06416503808508593</v>
+        <v>0.05939662534687856</v>
       </c>
       <c r="T10">
-        <v>0.06416503808508593</v>
+        <v>0.05939662534687855</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.44904296792746</v>
+        <v>6.840640999999999</v>
       </c>
       <c r="H11">
-        <v>6.44904296792746</v>
+        <v>20.521923</v>
       </c>
       <c r="I11">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="J11">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.601209769439449</v>
+        <v>0.7602199999999999</v>
       </c>
       <c r="N11">
-        <v>0.601209769439449</v>
+        <v>2.28066</v>
       </c>
       <c r="O11">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="P11">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="Q11">
-        <v>3.877227635852769</v>
+        <v>5.200392101019998</v>
       </c>
       <c r="R11">
-        <v>3.877227635852769</v>
+        <v>46.80352890917999</v>
       </c>
       <c r="S11">
-        <v>0.05279647196790755</v>
+        <v>0.06150250346918168</v>
       </c>
       <c r="T11">
-        <v>0.05279647196790755</v>
+        <v>0.06150250346918168</v>
       </c>
     </row>
   </sheetData>
